--- a/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
+++ b/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Documents\IWM\CMMI3\Repositorio\Organización\Procesos\Ciclo de vida IWM\3. Ejecución\3.3 Pruebas internas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\Repositorio IWM\Organización\Procesos\Ciclo de vida IWM\3. Ejecución\3.3 Pruebas internas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Casos De Uso</t>
   </si>
@@ -39,14 +39,35 @@
     <t>Caso de Prueba</t>
   </si>
   <si>
-    <t>Proyecto:</t>
+    <t>Reporte de revision</t>
+  </si>
+  <si>
+    <t>Nombre del proyecto:</t>
+  </si>
+  <si>
+    <t>Tipo de revision:</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Elaborado por (autor del documento):</t>
+  </si>
+  <si>
+    <t>Inspector(es):</t>
+  </si>
+  <si>
+    <t>Tiempo de realizacion:</t>
+  </si>
+  <si>
+    <t>Requerimientos:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF63776D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF465A53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -215,6 +249,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -520,223 +561,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
+++ b/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Casos De Uso</t>
   </si>
@@ -39,28 +39,22 @@
     <t>Caso de Prueba</t>
   </si>
   <si>
-    <t>Reporte de revision</t>
-  </si>
-  <si>
     <t>Nombre del proyecto:</t>
   </si>
   <si>
-    <t>Tipo de revision:</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
     <t>Elaborado por (autor del documento):</t>
   </si>
   <si>
-    <t>Inspector(es):</t>
-  </si>
-  <si>
     <t>Tiempo de realizacion:</t>
   </si>
   <si>
     <t>Requerimientos:</t>
+  </si>
+  <si>
+    <t>Reporte</t>
   </si>
 </sst>
 </file>
@@ -249,13 +243,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -561,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,85 +572,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -810,40 +806,22 @@
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="5"/>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="6">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
+++ b/Organización/Procesos/Ciclo de vida IWM/3. Ejecución/3.3 Pruebas internas/PTTL_casos_de_prueba.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Casos De Uso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Pasos</t>
   </si>
@@ -55,13 +52,28 @@
   </si>
   <si>
     <t>Reporte</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Pre-Condicion</t>
+  </si>
+  <si>
+    <t>Errores presentados</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>CU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +92,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -228,20 +248,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -250,6 +309,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -555,274 +635,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30" style="7" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="I10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="5"/>
+      <c r="J10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>